--- a/data/trans_dic/P2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>92,39%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>99,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>94,74%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>90,19%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>93,25%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>94,35%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>97,85%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,98; 97,02</t>
+          <t>87,8; 97,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,9; 94,58</t>
+          <t>59,37; 95,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,08; 96,73</t>
+          <t>77,33; 96,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,32; 96,71</t>
+          <t>76,84; 96,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,15; 98,1</t>
+          <t>97,35; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,24; 97,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,05; 96,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,64; 96,35</t>
+          <t>90,0; 98,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,91; 96,86</t>
+          <t>86,83; 96,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,77; 97,75</t>
+          <t>91,17; 97,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,84; 96,67</t>
+          <t>93,11; 97,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>84,81; 94,75</t>
+          <t>92,5; 98,96</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,25; 95,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,76; 96,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>93,88; 97,46</t>
+          <t>90,91; 97,2</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>78,87; 94,85</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>86,71; 95,89</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>86,86; 96,55</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>95,24; 99,13</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>96,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>97,35%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,37%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>94,32%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,91%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>94,79%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,06; 97,05</t>
+          <t>93,54; 98,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,18; 97,86</t>
+          <t>93,44; 97,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>93,49; 97,06</t>
+          <t>94,55; 97,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>92,01; 96,12</t>
+          <t>91,94; 95,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,82; 95,93</t>
+          <t>92,7; 97,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,69; 95,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,36; 94,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,56; 94,37</t>
+          <t>88,79; 96,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,45; 93,35</t>
+          <t>91,63; 96,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,66; 98,53</t>
+          <t>89,17; 94,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>93,47; 96,08</t>
+          <t>88,1; 93,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>92,72; 95,85</t>
+          <t>88,43; 96,42</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 95,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>90,74; 94,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>93,54; 96,79</t>
+          <t>92,1; 96,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>93,35; 96,62</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>92,47; 95,61</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91,04; 94,31</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>92,51; 96,69</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>93,53%</t>
+          <t>94,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>93,47%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>93,68%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>92,91%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>93,52%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,85; 95,61</t>
+          <t>87,81; 95,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,32; 95,7</t>
+          <t>89,49; 96,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>89,61; 95,71</t>
+          <t>90,87; 96,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,63; 96,05</t>
+          <t>90,81; 95,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,51; 97,54</t>
+          <t>89,09; 96,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,94; 96,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>92,08; 96,14</t>
+          <t>93,38; 98,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,34; 94,11</t>
+          <t>90,35; 95,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,49; 94,79</t>
+          <t>90,44; 95,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>93,05; 96,05</t>
+          <t>89,41; 93,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,75; 95,44</t>
+          <t>90,17; 95,77</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>91,18; 94,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>91,1; 95,68</t>
+          <t>91,53; 96,13</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>91,38; 95,45</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>91,8; 95,26</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>91,37; 94,47</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>91,23; 95,47</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>95,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>96,14%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>95,05%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>93,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>93,11%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>91,64%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>95,64%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>94,96%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>93,6%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>93,81%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>92,67%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>95,24%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>95,04%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>95,45%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>95,6%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,96</t>
+          <t>93,11; 96,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,63; 95,65</t>
+          <t>93,81; 97,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,61; 95,97</t>
+          <t>91,22; 97,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>91,25; 95,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,78; 96,37</t>
+          <t>91,65; 96,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,62; 96,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,79; 94,45</t>
+          <t>93,68; 96,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88,3; 93,42</t>
+          <t>91,54; 95,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94,08; 96,73</t>
+          <t>93,12; 97,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93,98; 95,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,02; 94,82</t>
+          <t>93,5; 98,04</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,45; 94,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 93,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>94,17; 96,16</t>
+          <t>93,97; 95,95</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>93,51; 96,19</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>92,9; 97,0</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>93,84; 97,14</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>94,86%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94,61%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94,65%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93,77%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>95,55%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93,85%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93,84%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>94,85%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>94,99%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>94,24%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>93,24%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>95,19%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93,59; 95,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91,95; 96,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92,3; 95,86</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>91,15; 95,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93,9; 96,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>93,5; 96,1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92,59; 94,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92,3; 94,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>91,07; 94,01</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>92,77; 96,14</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>94,1; 95,75</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>92,83; 95,23</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>92,9; 95,11</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>91,71; 94,3</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>94,09; 96,16</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,99%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>646.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>214168</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>295009</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>484099</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>672529</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>445055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>248354</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>391267</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>605909</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>862577</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>624106</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>462523</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>686276</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1090008</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1535106</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1069160</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>198855; 221912</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>201389; 324560</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>410023; 509631</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>559615; 704986</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>435524; 447386</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>235510; 257164</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>366159; 406199</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>582220; 620674</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>836742; 876958</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>596858; 638549</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>443787; 474536</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>600129; 721728</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>1013587; 1120868</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1413286; 1570927</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>1040609; 1083193</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>305.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>968.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>1194.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>682.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>628353</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>895997</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1164038</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1527460</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1028281</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>674302</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>943221</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1137664</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1378473</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1013545</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1302654</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1839218</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2301702</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2905933</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2041826</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>608814; 640523</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>871403; 913109</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1141197; 1182000</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1489214; 1554688</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>992348; 1047420</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>634956; 693505</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>916274; 964068</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1099854; 1165030</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1328444; 1409642</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>958064; 1044732</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1258060; 1324203</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1804132; 1867177</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2256690; 2333104</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2847396; 2949792</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1992633; 2082779</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>437.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>541.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>515.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>762.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>617.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>419409</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>669275</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>795040</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1027117</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>776474</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>511842</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>718567</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>879320</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1067986</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>839539</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>931252</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1387842</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1674360</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2095103</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1616013</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>400117; 433982</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>640357; 687028</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>768464; 812923</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>992959; 1048655</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>740202; 799437</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>496497; 522183</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>694969; 738359</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>851706; 896962</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1038526; 1091470</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>808931; 859157</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>903726; 949193</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1356857; 1417227</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1640788; 1702641</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>2060365; 2130338</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1576412; 1649733</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>764.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>875.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1639.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>933.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2008346</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1398705</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>815671</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1037972</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1987866</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1320191</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>730870</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>947321</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3996212</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2718894</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1546541</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1985294</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1968758; 2036817</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1367128; 1419405</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>784637; 836659</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1000940; 1058731</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1957587; 2013870</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1284681; 1345246</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>707918; 744530</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>920603; 965388</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3950713; 4033691</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2675115; 2751818</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1505309; 1571667</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1948775; 2017275</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1278.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1094.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1289.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1265.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>993.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1520.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1262.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1544.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1553.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1223.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2798.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2356.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>2833.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2818.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>2216.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3270277</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3258984</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3258848</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3227105</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3287781</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3422365</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3373245</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3353764</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3309036</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3424512</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>6692641</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>6632230</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6612612</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>6536141</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>6712293</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3226514; 3307992</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3167471; 3307562</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3178006; 3300566</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3136972; 3281138</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3231108; 3328101</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3364475; 3457983</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3327905; 3414297</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3298787; 3395070</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3249476; 3354477</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3349559; 3471189</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6629821; 6746231</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>6534381; 6703480</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>6518924; 6673876</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6428882; 6609862</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>6634497; 6780372</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
